--- a/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1_R-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.56763721379259</v>
+        <v>-1.955600777866366</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.042293197195048</v>
+        <v>3.45266774861492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.19519565869564</v>
+        <v>14.69452624815271</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.314055473533626</v>
+        <v>-1.273498385281599</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.136584782883802</v>
+        <v>2.14262240408495</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>16.77817319441565</v>
+        <v>16.6638001464361</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.7679258685811351</v>
+        <v>-0.5636927728377162</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.940404671739941</v>
+        <v>3.97896744089859</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>17.05288226676359</v>
+        <v>16.85883746423604</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.815435209293957</v>
+        <v>3.685564356816709</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.37787570972529</v>
+        <v>10.19790583266844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22.67370273580096</v>
+        <v>22.48598223708232</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.40881355456249</v>
+        <v>4.298420868383164</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.868406541912355</v>
+        <v>8.96190792937165</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>22.99806064352612</v>
+        <v>22.91037640323625</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.243871621721989</v>
+        <v>3.409706571452157</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>8.481872522674983</v>
+        <v>8.637220292978011</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.01572017070432</v>
+        <v>22.05200045908558</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.140749626566218</v>
+        <v>-0.1744317627226125</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.363407027458017</v>
+        <v>0.3240786623406749</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.227008793133961</v>
+        <v>1.3046091286612</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.08158461102369376</v>
+        <v>-0.07890792111212916</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1358885036943838</v>
+        <v>0.1322511084675616</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.016202937498655</v>
+        <v>1.014726255945733</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.05826604681141179</v>
+        <v>-0.0429534603176085</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2879784147010763</v>
+        <v>0.2863211477285919</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.232535887129933</v>
+        <v>1.240559260737482</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4585829220488943</v>
+        <v>0.4257335151372318</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.210013897469612</v>
+        <v>1.180551183274392</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.628580981046425</v>
+        <v>2.672314666562214</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3211509126942168</v>
+        <v>0.3155465278733196</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6389697700713912</v>
+        <v>0.6685488999856712</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.690459033310492</v>
+        <v>1.707155542497904</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.274830019252633</v>
+        <v>0.2900439180908299</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.726972366920517</v>
+        <v>0.7302928782246618</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.88538833538963</v>
+        <v>1.910014848549007</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>5.711427700977993</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>7.953081356720371</v>
+        <v>7.953081356720368</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7185957186470402</v>
@@ -878,7 +878,7 @@
         <v>4.991062772121771</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.684145244043991</v>
+        <v>9.684145244043995</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.037228706889244</v>
+        <v>-0.9916766000178795</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.679891236416577</v>
+        <v>2.559597969850342</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.154125408399146</v>
+        <v>9.291579212540206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7543315749515795</v>
+        <v>-0.7006327301415614</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.874142255708606</v>
+        <v>4.053296209696291</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>6.216402245447542</v>
+        <v>6.499536243119093</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.3466508873941326</v>
+        <v>-0.3398209434428959</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.747933534139531</v>
+        <v>3.758314868392491</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.355937770106104</v>
+        <v>8.319402731449324</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.364504013061445</v>
+        <v>2.440445086775525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.199068871933795</v>
+        <v>6.094796368353617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.55922465987636</v>
+        <v>13.44836302894983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.135944150093152</v>
+        <v>2.24807979493885</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>7.518280217834154</v>
+        <v>7.383538332070608</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.520193673155918</v>
+        <v>9.541685728275459</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.826974583024749</v>
+        <v>1.804857346109782</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>6.154873543376023</v>
+        <v>6.223292451263154</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.01323527310824</v>
+        <v>10.91822311759882</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>1.06009594173123</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.056901213442875</v>
+        <v>2.056901213442876</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1613491041862942</v>
+        <v>-0.1608199856448896</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4189340817096144</v>
+        <v>0.3686929533058744</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.412912422396817</v>
+        <v>1.441055987426301</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1772923481405868</v>
+        <v>-0.1639298400034283</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7921235022304047</v>
+        <v>0.834873329832131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.233926243610456</v>
+        <v>1.321439471305656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.07371838173948873</v>
+        <v>-0.06589820569842714</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7037934854010953</v>
+        <v>0.7151399770558462</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.569633022433455</v>
+        <v>1.561116615556917</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.5196432847810515</v>
+        <v>0.529747404510161</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.355014517053744</v>
+        <v>1.334287815799447</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.901681490950147</v>
+        <v>2.961494036329083</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6807275006381353</v>
+        <v>0.6819468794484111</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.251225446485125</v>
+        <v>2.256161901772303</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.927095777257147</v>
+        <v>2.955644329342908</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4339237585442677</v>
+        <v>0.4241847078178241</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.483014716278909</v>
+        <v>1.463900268295001</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.677039806715648</v>
+        <v>2.663222910146948</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>9.107313137310619</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.761084930854809</v>
+        <v>6.761084930854806</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>3.30804840128853</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.648495971049352</v>
+        <v>-0.5910624368017802</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>4.824708438168803</v>
+        <v>5.184745084765073</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.811048253969642</v>
+        <v>3.241881837579694</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.4225100009017387</v>
+        <v>-0.6889693891023556</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.254133105416347</v>
+        <v>1.078200683903343</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.655291399628233</v>
+        <v>3.678972932406945</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8280023384587587</v>
+        <v>0.6305579940562592</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>4.199718606015627</v>
+        <v>3.659845928034007</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.490724952441484</v>
+        <v>4.311931300728971</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.139886052819174</v>
+        <v>7.676989595922278</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.73515178317804</v>
+        <v>13.36461456034817</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.38245258817105</v>
+        <v>10.73649200473878</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.314531100161993</v>
+        <v>7.155936002565134</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>9.440838304410837</v>
+        <v>8.779780413509117</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>10.48562787804186</v>
+        <v>10.28199673630821</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.948903315643566</v>
+        <v>6.482063423239243</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.864018567348037</v>
+        <v>9.611233926391559</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.405460762852307</v>
+        <v>9.21903614188099</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>1.054903469334844</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7831389831987737</v>
+        <v>0.7831389831987735</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4261043988862898</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.0642233940829488</v>
+        <v>-0.07158030929746792</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4240027595054474</v>
+        <v>0.4560519729128314</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2592551610571193</v>
+        <v>0.2921596409504381</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04523886866648377</v>
+        <v>-0.08089593943238085</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1318290905736998</v>
+        <v>0.1055058635498895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3626697118737227</v>
+        <v>0.3470339252870235</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07707805364130116</v>
+        <v>0.06434975179770862</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4267812137563973</v>
+        <v>0.3896132730738827</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.4670920301501109</v>
+        <v>0.4176091146055078</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.018323645527774</v>
+        <v>1.132547951286035</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.923312290498512</v>
+        <v>1.935680941189386</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.484525755659259</v>
+        <v>1.535620022298973</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.200720120318504</v>
+        <v>1.179463445616175</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.599032298489342</v>
+        <v>1.4338815073934</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.767778619791162</v>
+        <v>1.732199605648952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8629583736405717</v>
+        <v>0.9230491690535674</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.424322446674203</v>
+        <v>1.354755896444414</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.373488868622709</v>
+        <v>1.298699672180722</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>4.419087477769244</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>8.797161437571537</v>
+        <v>8.797161437571539</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.055887874360445</v>
@@ -1306,7 +1306,7 @@
         <v>4.85778367302048</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>9.926526373597122</v>
+        <v>9.926526373597127</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.3044946842101691</v>
+        <v>-0.4173151082594591</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.901376404484076</v>
+        <v>3.770466966633337</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.539627518796735</v>
+        <v>9.505920716286132</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2473928849693024</v>
+        <v>-0.2334851065676154</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>2.87546827581533</v>
+        <v>2.831334822061051</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>7.182405000767125</v>
+        <v>7.345041966423128</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09657257526136803</v>
+        <v>0.0977617199708397</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.8055083612131</v>
+        <v>3.701614974377462</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.828204496944155</v>
+        <v>8.917933691530994</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.578271834757419</v>
+        <v>2.337381300131811</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.917315137849626</v>
+        <v>6.86062948992721</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12.80040267401193</v>
+        <v>12.7672499122758</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.463983201463854</v>
+        <v>2.636898680626871</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.90113292457719</v>
+        <v>6.031485728553175</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.05913453679683</v>
+        <v>10.09441720502214</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.117797894596722</v>
+        <v>2.096856658798456</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>6.020033676507984</v>
+        <v>5.900667613796724</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>10.98578321769137</v>
+        <v>11.12428846642741</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.5042672823754053</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.003854463858965</v>
+        <v>1.003854463858966</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1314130122830811</v>
@@ -1411,7 +1411,7 @@
         <v>0.6045869083190841</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.235429219273847</v>
+        <v>1.235429219273848</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03712103731814163</v>
+        <v>-0.0543470591741655</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4854988280640005</v>
+        <v>0.4772927844086268</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1.171700751541059</v>
+        <v>1.176163530635427</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.02714094008400299</v>
+        <v>-0.02661773399143123</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3038338834907298</v>
+        <v>0.2922308479276354</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7460927101159269</v>
+        <v>0.7524594611160182</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01043092081776788</v>
+        <v>0.01120175464785912</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.4446963618071745</v>
+        <v>0.4309887816130371</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.033876730045642</v>
+        <v>1.048545401939051</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3927082799192969</v>
+        <v>0.3451631505402334</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.048108662659522</v>
+        <v>1.043522081434196</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.938801183531478</v>
+        <v>1.924821383944977</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.3052253675838993</v>
+        <v>0.3246002653884935</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7214287250675094</v>
+        <v>0.748126790354374</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.250413164544987</v>
+        <v>1.254673350709968</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2841477150933183</v>
+        <v>0.2771902050865363</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.8061562962700903</v>
+        <v>0.777237272703884</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.46475850957242</v>
+        <v>1.470197380400145</v>
       </c>
     </row>
     <row r="28">
